--- a/biology/Biochimie/Navette_du_glycérol-3-phosphate/Navette_du_glycérol-3-phosphate.xlsx
+++ b/biology/Biochimie/Navette_du_glycérol-3-phosphate/Navette_du_glycérol-3-phosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Navette_du_glyc%C3%A9rol-3-phosphate</t>
+          <t>Navette_du_glycérol-3-phosphate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La navette du glycérol-3-phosphate est un mécanisme d'échange de molécules chez les eucaryotes — animaux, mycètes[1] et plantes[2] — qui permet de recycler en NAD+ le NADH+H+ issu de la glycolyse produit dans le cytosol en transférant ses électrons à haut potentiel de transfert aux mitochondries à travers la membrane mitochondriale interne pour rejoindre la respiration cellulaire à travers une ubiquinone :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La navette du glycérol-3-phosphate est un mécanisme d'échange de molécules chez les eucaryotes — animaux, mycètes et plantes — qui permet de recycler en NAD+ le NADH+H+ issu de la glycolyse produit dans le cytosol en transférant ses électrons à haut potentiel de transfert aux mitochondries à travers la membrane mitochondriale interne pour rejoindre la respiration cellulaire à travers une ubiquinone :
 Dans le cytosol, la GPDH soluble (EC 1.1.1.8) convertit le NADH+H+ en NAD+ en réduisant la dihydroxyacétone phosphate (DHAP) en glycérol-3-phosphate :
 Dans la mitochondrie, la GPDH mitochondriale (EC 1.1.5.3) décharge les électrons du glycérol-3-phosphate sur un FAD pour donner du FADH2 et régénérer la DHAP ; le FADH2 réduit à son tour une ubiquinone, dont les électrons rejoignent ensuite le processus de phosphorylation oxydative.
 Il existe une autre navette mitochondriale, la navette malate-aspartate, plus répandue mais moins rapide, de sorte que la navette du glycérol-3-phosphate intervient dans les organes qui réclament de libérer rapidement de grandes quantités d'énergie, c'est-à-dire principalement les muscles et le cerveau.
